--- a/files/rice_recommendations_template.xlsx
+++ b/files/rice_recommendations_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DA13-ICTU\Music\AMIA Caraga\ACAP13\acap-caraga\server\src\scripts\data\dataset_v2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591DD530-C39D-3E4A-8A05-F7A9A96A08E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4366780-73D3-4783-B340-97F5C360E57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{E2D1DC89-D079-3B4D-864B-8CE149E3E279}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E2D1DC89-D079-3B4D-864B-8CE149E3E279}"/>
   </bookViews>
   <sheets>
     <sheet name="Rice_10Day" sheetId="9" r:id="rId1"/>
@@ -387,27 +387,6 @@
     <t>&lt;p&gt;&lt;strong&gt;BAGO ANG BAGYO&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Linisin, ayusin, at kumpunihin ang mga dike, pilapil, at kanal para sa mas maayos na irigasyon at daluyan ng tubig na makatutulong upang maiwasan ang pagbaha.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;SA ORAS NG BAGYO&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Manatili sa ‘evacuation center’, sa inyong tahanan o sa kung saan man na ligtas na lugar. Huwag lumabas upang tingnan ang mga pinsala sa sakahan.&amp;nbsp;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;PAGKATAPOS NG BAGYO&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;I-report sa Municipal/City Agriculture Office (M/CAO) ang mga pinsalang natamo sa sakahan dulot ng bagyo.&lt;/li&gt;&lt;li&gt;Mag-&lt;i&gt;file&amp;nbsp;&lt;/i&gt;ng ‘Indemnity Claim’ mula sa Philippine Crop Insurance Corporation (PCIC).&lt;/li&gt;&lt;li&gt;Para mga hindi nakarehistro sa RSBSA, pumunta sa pinakamalapit na M/CAO upang makapagpa-rehistro.&lt;/li&gt;&lt;li&gt;Sa mga darating na ‘wet season planting’, siguraduhing mayroong ‘insurance’ bago magtanim.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng dry condition sa loob ng {{seasonal_range_identifier}} dahil sa dalawang magkasunod na buwan na may below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Bicol website para sa buong seasonal advisory.</t>
-  </si>
-  <si>
-    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng dry spell sa loob ng {{seasonal_range_identifier}} dahil sa tatlong magkasunod na buwan na may below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Bicol website para sa buong seasonal advisory.</t>
-  </si>
-  <si>
-    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng dry spell sa loob ng {{seasonal_range_identifier}} dahil sa dalawang magkasunod na buwan na may way below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Bicol website para sa buong seasonal advisory.</t>
-  </si>
-  <si>
-    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng drought sa loob ng {{seasonal_range_identifier}} dahil sa tatlong magkasunod na buwan na may way below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Bicol website para sa buong seasonal advisory.</t>
-  </si>
-  <si>
-    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng drought sa loob ng {{seasonal_range_identifier}} dahil sa limang magkasunod na buwan na may below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Bicol website para sa buong seasonal advisory.</t>
-  </si>
-  <si>
-    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng mas madalas na pag-ulan sa loob ng {{seasonal_range_identifier}} dahil sa tatlong magkasunod na buwan na may above normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Bicol website para sa buong seasonal advisory.</t>
-  </si>
-  <si>
-    <t>Hi {{Ka-AMIA}}! Magiging angkop ang lagay ng panahon para sa pagtatanim ng palay sa loob ng {{seasonal_range_identifier}}. Bisitahin ang ACAP-Bicol website para sa buong seasonal advisory.</t>
-  </si>
-  <si>
     <t>Hi {{Ka-AMIA}}! Asahan ang masamang lagay ng panahon dulot ng Tropical Depression {{special_weather_name_identifier}}. Ipagpaliban ang mga gawaing pangsakahan kung may malakas na pag-ulan.</t>
   </si>
   <si>
@@ -670,6 +649,27 @@
   </si>
   <si>
     <t>Reproductive (Panicle Initiation)</t>
+  </si>
+  <si>
+    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng dry condition sa loob ng {{seasonal_range_identifier}} dahil sa dalawang magkasunod na buwan na may below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Caraga website para sa buong seasonal advisory.</t>
+  </si>
+  <si>
+    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng dry spell sa loob ng {{seasonal_range_identifier}} dahil sa tatlong magkasunod na buwan na may below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Caraga website para sa buong seasonal advisory.</t>
+  </si>
+  <si>
+    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng dry spell sa loob ng {{seasonal_range_identifier}} dahil sa dalawang magkasunod na buwan na may way below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Caraga website para sa buong seasonal advisory.</t>
+  </si>
+  <si>
+    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng drought sa loob ng {{seasonal_range_identifier}} dahil sa tatlong magkasunod na buwan na may way below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Caraga website para sa buong seasonal advisory.</t>
+  </si>
+  <si>
+    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng drought sa loob ng {{seasonal_range_identifier}} dahil sa limang magkasunod na buwan na may below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Caraga website para sa buong seasonal advisory.</t>
+  </si>
+  <si>
+    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng mas madalas na pag-ulan sa loob ng {{seasonal_range_identifier}} dahil sa tatlong magkasunod na buwan na may above normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Caraga website para sa buong seasonal advisory.</t>
+  </si>
+  <si>
+    <t>Hi {{Ka-AMIA}}! Magiging angkop ang lagay ng panahon para sa pagtatanim ng palay sa loob ng {{seasonal_range_identifier}}. Bisitahin ang ACAP-Caraga website para sa buong seasonal advisory.</t>
   </si>
 </sst>
 </file>
@@ -1157,16 +1157,16 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="27.296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.69921875" style="8" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="8" customWidth="1"/>
-    <col min="4" max="7" width="32.83203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="4" max="7" width="32.796875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
@@ -1218,16 +1218,16 @@
         <v>32</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="195" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="207" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>27</v>
       </c>
@@ -1241,16 +1241,16 @@
         <v>34</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -1264,16 +1264,16 @@
         <v>34</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>32</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
@@ -1310,16 +1310,16 @@
         <v>34</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1333,16 +1333,16 @@
         <v>34</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
@@ -1356,16 +1356,16 @@
         <v>39</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="109.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
@@ -1379,16 +1379,16 @@
         <v>41</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
@@ -1402,16 +1402,16 @@
         <v>43</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
@@ -1425,16 +1425,16 @@
         <v>39</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
@@ -1448,16 +1448,16 @@
         <v>41</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>46</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1471,16 +1471,16 @@
         <v>43</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="198" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
@@ -1494,16 +1494,16 @@
         <v>39</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="138" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
@@ -1517,16 +1517,16 @@
         <v>41</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>48</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="150" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="138" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
@@ -1540,16 +1540,16 @@
         <v>43</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>49</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="120" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>15</v>
       </c>
@@ -1563,16 +1563,16 @@
         <v>39</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>50</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>15</v>
       </c>
@@ -1586,16 +1586,16 @@
         <v>41</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>51</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -1609,16 +1609,16 @@
         <v>43</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>52</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="135" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>18</v>
       </c>
@@ -1632,16 +1632,16 @@
         <v>53</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>18</v>
       </c>
@@ -1655,16 +1655,16 @@
         <v>54</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="135" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
@@ -1678,16 +1678,16 @@
         <v>56</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>57</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="135" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>18</v>
       </c>
@@ -1701,16 +1701,16 @@
         <v>53</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="120" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
@@ -1724,16 +1724,16 @@
         <v>54</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>18</v>
       </c>
@@ -1747,16 +1747,16 @@
         <v>56</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>60</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="195" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -1770,16 +1770,16 @@
         <v>53</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>61</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="121.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>18</v>
       </c>
@@ -1793,16 +1793,16 @@
         <v>54</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>62</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="165" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>18</v>
       </c>
@@ -1816,18 +1816,18 @@
         <v>56</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>63</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="118.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>16</v>
@@ -1839,18 +1839,18 @@
         <v>64</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>16</v>
@@ -1862,18 +1862,18 @@
         <v>54</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="135" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>16</v>
@@ -1885,18 +1885,18 @@
         <v>65</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>66</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>23</v>
@@ -1908,18 +1908,18 @@
         <v>64</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>67</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>23</v>
@@ -1931,18 +1931,18 @@
         <v>54</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>23</v>
@@ -1954,18 +1954,18 @@
         <v>65</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>60</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="221" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="220.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>24</v>
@@ -1977,18 +1977,18 @@
         <v>64</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>68</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>24</v>
@@ -2000,18 +2000,18 @@
         <v>54</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>69</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="186" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>24</v>
@@ -2023,16 +2023,16 @@
         <v>65</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>19</v>
       </c>
@@ -2046,16 +2046,16 @@
         <v>71</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F39" s="22" t="s">
         <v>72</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>19</v>
       </c>
@@ -2069,16 +2069,16 @@
         <v>73</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F40" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>19</v>
       </c>
@@ -2092,16 +2092,16 @@
         <v>65</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="240" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>19</v>
       </c>
@@ -2115,16 +2115,16 @@
         <v>71</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>74</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="180" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>19</v>
       </c>
@@ -2138,16 +2138,16 @@
         <v>73</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>69</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="195" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>19</v>
       </c>
@@ -2161,16 +2161,16 @@
         <v>65</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F44" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>20</v>
       </c>
@@ -2184,16 +2184,16 @@
         <v>75</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>76</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="167" customHeight="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="166.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>20</v>
       </c>
@@ -2207,16 +2207,16 @@
         <v>77</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>78</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>20</v>
       </c>
@@ -2230,16 +2230,16 @@
         <v>79</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>76</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="312" customHeight="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="312" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>20</v>
       </c>
@@ -2253,16 +2253,16 @@
         <v>75</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="143" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>20</v>
       </c>
@@ -2276,16 +2276,16 @@
         <v>77</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>81</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="312" customHeight="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="312" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>20</v>
       </c>
@@ -2299,13 +2299,13 @@
         <v>79</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2325,14 +2325,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" customWidth="1"/>
-    <col min="2" max="2" width="89.33203125" customWidth="1"/>
-    <col min="3" max="3" width="84.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="56.296875" customWidth="1"/>
+    <col min="2" max="2" width="89.296875" customWidth="1"/>
+    <col min="3" max="3" width="84.19921875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -2341,141 +2341,141 @@
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="18"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="18"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="C29" s="7"/>
     </row>
@@ -2488,22 +2488,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B020F0C-4030-5B4A-A41A-388920D315A9}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="75" zoomScaleNormal="61" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="75" zoomScaleNormal="61" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="25.69921875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.69921875" style="12" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="12" customWidth="1"/>
-    <col min="4" max="6" width="32.83203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="16"/>
+    <col min="4" max="6" width="32.796875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="52.296875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="22.69921875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2524,7 +2524,7 @@
       <c r="H1" s="14"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="143" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
@@ -2556,16 +2556,16 @@
         <v>82</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>83</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="143" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
@@ -2579,16 +2579,16 @@
         <v>82</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>83</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="143" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
@@ -2602,16 +2602,16 @@
         <v>82</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>83</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="117" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
@@ -2625,16 +2625,16 @@
         <v>84</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>85</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="148" customHeight="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="148.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>27</v>
       </c>
@@ -2648,16 +2648,16 @@
         <v>86</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>87</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="143" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -2671,16 +2671,16 @@
         <v>82</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>88</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="143" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
@@ -2694,16 +2694,16 @@
         <v>82</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>88</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="117" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
@@ -2717,16 +2717,16 @@
         <v>82</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="117" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="108" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
@@ -2740,16 +2740,16 @@
         <v>84</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>89</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="78" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
@@ -2763,16 +2763,16 @@
         <v>86</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>90</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="117" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
@@ -2786,16 +2786,16 @@
         <v>82</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="117" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>14</v>
       </c>
@@ -2809,16 +2809,16 @@
         <v>82</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="117" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
@@ -2832,16 +2832,16 @@
         <v>82</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="117" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="108" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
@@ -2855,16 +2855,16 @@
         <v>84</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="78" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
@@ -2878,16 +2878,16 @@
         <v>86</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="260" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="264" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>15</v>
       </c>
@@ -2901,16 +2901,16 @@
         <v>91</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>92</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="260" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="264" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -2924,16 +2924,16 @@
         <v>91</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>92</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="260" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="264" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -2947,16 +2947,16 @@
         <v>91</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>92</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="78" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -2970,16 +2970,16 @@
         <v>93</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="260" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="264" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -2993,16 +2993,16 @@
         <v>94</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>92</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>15</v>
       </c>
@@ -3016,16 +3016,16 @@
         <v>91</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>95</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>15</v>
       </c>
@@ -3039,16 +3039,16 @@
         <v>91</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>95</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>15</v>
       </c>
@@ -3062,16 +3062,16 @@
         <v>91</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>95</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="117" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="108" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>15</v>
       </c>
@@ -3085,16 +3085,16 @@
         <v>93</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>96</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="91" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="96" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>15</v>
       </c>
@@ -3108,16 +3108,16 @@
         <v>94</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>97</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="156" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>15</v>
       </c>
@@ -3131,16 +3131,16 @@
         <v>91</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>98</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="156" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>15</v>
       </c>
@@ -3154,16 +3154,16 @@
         <v>91</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>98</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="156" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>15</v>
       </c>
@@ -3177,16 +3177,16 @@
         <v>91</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>98</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="78" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>15</v>
       </c>
@@ -3200,16 +3200,16 @@
         <v>93</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>99</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="156" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>15</v>
       </c>
@@ -3223,16 +3223,16 @@
         <v>94</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>98</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="260" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="264" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>18</v>
       </c>
@@ -3246,16 +3246,16 @@
         <v>100</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>92</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="260" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="264" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>18</v>
       </c>
@@ -3269,16 +3269,16 @@
         <v>100</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>92</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="260" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="264" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -3292,16 +3292,16 @@
         <v>100</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>92</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="91" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>18</v>
       </c>
@@ -3315,16 +3315,16 @@
         <v>101</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>46</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="260" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="264" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>18</v>
       </c>
@@ -3338,16 +3338,16 @@
         <v>102</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>92</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="143" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>18</v>
       </c>
@@ -3361,16 +3361,16 @@
         <v>100</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>95</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="143" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>18</v>
       </c>
@@ -3384,16 +3384,16 @@
         <v>100</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>95</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="143" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>18</v>
       </c>
@@ -3407,16 +3407,16 @@
         <v>100</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>95</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="117" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="108" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>18</v>
       </c>
@@ -3430,16 +3430,16 @@
         <v>101</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>96</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="91" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="96" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>18</v>
       </c>
@@ -3453,16 +3453,16 @@
         <v>102</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>97</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="156" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>18</v>
       </c>
@@ -3476,16 +3476,16 @@
         <v>100</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>98</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="156" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>18</v>
       </c>
@@ -3499,16 +3499,16 @@
         <v>100</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>98</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="156" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>18</v>
       </c>
@@ -3522,16 +3522,16 @@
         <v>100</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>98</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="91" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>18</v>
       </c>
@@ -3545,16 +3545,16 @@
         <v>101</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>99</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="156" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>18</v>
       </c>
@@ -3568,18 +3568,18 @@
         <v>102</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>98</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="260" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="264" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>16</v>
@@ -3591,18 +3591,18 @@
         <v>103</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>92</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="260" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="264" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>16</v>
@@ -3614,18 +3614,18 @@
         <v>103</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>92</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="260" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="264" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>16</v>
@@ -3637,18 +3637,18 @@
         <v>103</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>92</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="78" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>16</v>
@@ -3660,18 +3660,18 @@
         <v>104</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>46</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="260" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="240" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>16</v>
@@ -3683,18 +3683,18 @@
         <v>105</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>92</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>23</v>
@@ -3706,18 +3706,18 @@
         <v>103</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>95</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>23</v>
@@ -3729,18 +3729,18 @@
         <v>103</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>95</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>23</v>
@@ -3752,18 +3752,18 @@
         <v>103</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>95</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="117" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="108" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>23</v>
@@ -3775,18 +3775,18 @@
         <v>104</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>96</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="91" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>23</v>
@@ -3798,18 +3798,18 @@
         <v>105</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>97</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="156" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>24</v>
@@ -3821,18 +3821,18 @@
         <v>103</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>98</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="156" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>24</v>
@@ -3844,18 +3844,18 @@
         <v>103</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>98</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="156" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>24</v>
@@ -3867,18 +3867,18 @@
         <v>103</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>98</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>24</v>
@@ -3890,18 +3890,18 @@
         <v>104</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>99</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="156" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>24</v>
@@ -3913,16 +3913,16 @@
         <v>105</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>98</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="104" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="96" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>19</v>
       </c>
@@ -3936,16 +3936,16 @@
         <v>106</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>72</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="104" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="96" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>19</v>
       </c>
@@ -3959,16 +3959,16 @@
         <v>106</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>72</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="104" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="96" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>19</v>
       </c>
@@ -3982,16 +3982,16 @@
         <v>106</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>72</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="91" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>19</v>
       </c>
@@ -4005,16 +4005,16 @@
         <v>107</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="78" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>19</v>
       </c>
@@ -4028,16 +4028,16 @@
         <v>105</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F67" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="117" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="108" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>19</v>
       </c>
@@ -4051,16 +4051,16 @@
         <v>106</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F68" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="117" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="108" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>19</v>
       </c>
@@ -4074,16 +4074,16 @@
         <v>106</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F69" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="117" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="108" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>19</v>
       </c>
@@ -4097,16 +4097,16 @@
         <v>106</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>19</v>
       </c>
@@ -4120,16 +4120,16 @@
         <v>107</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>69</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="91" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>19</v>
       </c>
@@ -4143,16 +4143,16 @@
         <v>105</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>108</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="91" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>20</v>
       </c>
@@ -4166,16 +4166,16 @@
         <v>109</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>76</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="91" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>20</v>
       </c>
@@ -4189,16 +4189,16 @@
         <v>109</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>76</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="91" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>20</v>
       </c>
@@ -4212,16 +4212,16 @@
         <v>109</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F75" s="13" t="s">
         <v>76</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="91" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>20</v>
       </c>
@@ -4235,16 +4235,16 @@
         <v>110</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>78</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="118.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>20</v>
       </c>
@@ -4258,16 +4258,16 @@
         <v>111</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>76</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="195" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="180" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>20</v>
       </c>
@@ -4281,16 +4281,16 @@
         <v>109</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F78" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="195" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="180" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>20</v>
       </c>
@@ -4304,16 +4304,16 @@
         <v>109</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F79" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="195" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="180" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>20</v>
       </c>
@@ -4327,16 +4327,16 @@
         <v>109</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="143" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>20</v>
       </c>
@@ -4350,16 +4350,16 @@
         <v>110</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>81</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="206" customHeight="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="205.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>20</v>
       </c>
@@ -4373,13 +4373,13 @@
         <v>111</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4395,18 +4395,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D34D3AE-F2E2-3348-B195-43FB4D0F780C}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection sqref="A1:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="62.296875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -4414,184 +4414,184 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="53" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="18"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="18"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="18"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="18"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="18"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="18"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="18"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="18"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="18"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="18"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="18"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="18"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="18"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="18"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="18"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="18"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="18"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="18"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="18"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="18"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="B33" s="18"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="18"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="18"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="B36" s="18"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="18"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="18"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="18"/>
     </row>
@@ -4608,18 +4608,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="27.296875" style="20" customWidth="1"/>
     <col min="2" max="2" width="38" style="20" customWidth="1"/>
     <col min="3" max="3" width="41" style="20" customWidth="1"/>
     <col min="4" max="4" width="49" style="5" customWidth="1"/>
     <col min="5" max="5" width="51.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>6</v>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="19" t="s">
         <v>7</v>
@@ -4645,9 +4645,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="207" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>112</v>
@@ -4662,12 +4662,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="207" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>112</v>
@@ -4679,9 +4679,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="207" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>112</v>
@@ -4696,9 +4696,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="207" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>112</v>
@@ -4713,9 +4713,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>112</v>
@@ -4730,9 +4730,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="207" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>112</v>
@@ -4747,70 +4747,70 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -4832,108 +4832,108 @@
   <sheetViews>
     <sheetView zoomScale="191" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="71.6640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.296875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="71.69921875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
     </row>
